--- a/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26736C96-7FCB-4E94-9688-7BDA2CFBEDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE06919F-3FC5-4B56-89EB-AE7BBB7BF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0DB3ACB6-3D61-4267-8CEF-39B098731DEF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0677A610-7ACD-474A-9752-4DDBCA5B182D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>11,51%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>15,19%</t>
@@ -95,10 +95,10 @@
     <t>10,53%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>86,87%</t>
@@ -119,16 +119,16 @@
     <t>84,81%</t>
   </si>
   <si>
-    <t>88,49%</t>
+    <t>88,66%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,25 +140,25 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>2,73%</t>
@@ -167,19 +167,19 @@
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,84%</t>
@@ -188,7 +188,7 @@
     <t>97,27%</t>
   </si>
   <si>
-    <t>98,26%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,733 +197,703 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,2%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>97,0%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>14,26%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>85,74%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D877B8F8-64CE-46A9-8340-2029CED9509F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C904A7-DEB9-43F8-A24B-CA3093BC4AAC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2002,7 +1972,7 @@
         <v>6177</v>
       </c>
       <c r="N14" s="7">
-        <v>6317354</v>
+        <v>6317355</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2023,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578F9955-0128-4AEA-91F1-3657F661AC3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C1897-7DBB-42CD-8967-CFFC3BE6863D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2675,13 +2645,13 @@
         <v>129852</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2690,13 +2660,13 @@
         <v>351006</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>441</v>
@@ -2705,13 +2675,13 @@
         <v>480858</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2696,13 @@
         <v>3289930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2971</v>
@@ -2741,13 +2711,13 @@
         <v>3203224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6055</v>
@@ -2756,13 +2726,13 @@
         <v>6493154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B7A77-6B09-4216-BFCB-A77F9636939F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA2A746-2274-4BB6-BD6A-7168CF15DBA8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2961,13 +2931,13 @@
         <v>69931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
@@ -2976,13 +2946,13 @@
         <v>211081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>257</v>
@@ -2991,13 +2961,13 @@
         <v>281012</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +2982,13 @@
         <v>684416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>711</v>
@@ -3027,13 +2997,13 @@
         <v>783579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3042,13 +3012,13 @@
         <v>1467995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3086,13 @@
         <v>38616</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3131,13 +3101,13 @@
         <v>117735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -3146,13 +3116,13 @@
         <v>156351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3137,13 @@
         <v>2037769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>1802</v>
@@ -3182,13 +3152,13 @@
         <v>1870565</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>3718</v>
@@ -3197,13 +3167,13 @@
         <v>3908334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3241,13 @@
         <v>10937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>192</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3286,13 +3256,13 @@
         <v>17344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3304,10 +3274,10 @@
         <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3292,13 @@
         <v>535949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3337,13 +3307,13 @@
         <v>531796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>1003</v>
@@ -3355,10 +3325,10 @@
         <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3396,13 @@
         <v>119484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3441,13 +3411,13 @@
         <v>346161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -3456,13 +3426,13 @@
         <v>465645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3447,13 @@
         <v>3258134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H14" s="7">
         <v>3024</v>
@@ -3492,13 +3462,13 @@
         <v>3185939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>6118</v>
@@ -3507,13 +3477,13 @@
         <v>6444073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3588,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C34892-A877-440F-A6F9-C5E93CAC9201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCD2BE6-087E-4D1A-822B-9B1B48CDF538}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3712,13 +3682,13 @@
         <v>121348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>569</v>
@@ -3727,13 +3697,13 @@
         <v>319041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>748</v>
@@ -3742,13 +3712,13 @@
         <v>440389</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3763,13 +3733,13 @@
         <v>420286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>858</v>
@@ -3778,13 +3748,13 @@
         <v>516912</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1370</v>
@@ -3793,13 +3763,13 @@
         <v>937197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3867,28 +3837,28 @@
         <v>143693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>395</v>
       </c>
       <c r="I7" s="7">
-        <v>350754</v>
+        <v>350755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -3897,13 +3867,13 @@
         <v>494448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3918,13 +3888,13 @@
         <v>2018329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2526</v>
@@ -3933,13 +3903,13 @@
         <v>1898766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>4344</v>
@@ -3948,13 +3918,13 @@
         <v>3917095</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,7 +3951,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4022,13 +3992,13 @@
         <v>28069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>73</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4037,13 +4007,13 @@
         <v>60378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -4052,13 +4022,13 @@
         <v>88446</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4073,13 +4043,13 @@
         <v>644970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>83</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4088,13 +4058,13 @@
         <v>653508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>275</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -4103,13 +4073,13 @@
         <v>1298480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4177,13 +4147,13 @@
         <v>293110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4192,13 +4162,13 @@
         <v>730173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>1452</v>
@@ -4207,13 +4177,13 @@
         <v>1023283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,16 +4195,16 @@
         <v>2974</v>
       </c>
       <c r="D14" s="7">
-        <v>3083585</v>
+        <v>3083584</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="H14" s="7">
         <v>4290</v>
@@ -4243,28 +4213,28 @@
         <v>3069187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="M14" s="7">
         <v>7264</v>
       </c>
       <c r="N14" s="7">
-        <v>6152772</v>
+        <v>6152771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>282</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4246,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4276,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE06919F-3FC5-4B56-89EB-AE7BBB7BF27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E45510-5F13-4C09-B166-D765D9A8A45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0677A610-7ACD-474A-9752-4DDBCA5B182D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02DACB2E-7C7A-4DE7-BD86-1396502EE05C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -98,7 +98,7 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>11,86%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>88,17%</t>
+    <t>88,14%</t>
   </si>
   <si>
     <t>90,59%</t>
@@ -140,55 +140,55 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>97,14%</t>
   </si>
   <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,652 +197,664 @@
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,04%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>3,8%</t>
   </si>
   <si>
-    <t>1,76%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>99,15%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>5,85%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>94,15%</t>
   </si>
   <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>92,48%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
   </si>
   <si>
     <t>94,79%</t>
@@ -1305,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C904A7-DEB9-43F8-A24B-CA3093BC4AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53DED81-83D3-4A7F-964D-27260661B51E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1644,7 @@
         <v>1624</v>
       </c>
       <c r="D8" s="7">
-        <v>1667860</v>
+        <v>1667861</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1683,7 +1695,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1912,10 +1924,10 @@
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>334</v>
@@ -1924,13 +1936,13 @@
         <v>338386</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,16 +1954,16 @@
         <v>3098</v>
       </c>
       <c r="D14" s="7">
-        <v>3164706</v>
+        <v>3164705</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3079</v>
@@ -1960,13 +1972,13 @@
         <v>3152649</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="M14" s="7">
         <v>6177</v>
@@ -1975,13 +1987,13 @@
         <v>6317355</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +2005,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2037,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29C1897-7DBB-42CD-8967-CFFC3BE6863D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082D3677-B4DE-43F9-BD94-142EFE50889F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2192,13 @@
         <v>95648</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>250</v>
@@ -2195,13 +2207,13 @@
         <v>267506</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>337</v>
@@ -2210,13 +2222,13 @@
         <v>363154</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2243,13 @@
         <v>878995</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>997</v>
@@ -2246,13 +2258,13 @@
         <v>1070290</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1818</v>
@@ -2261,13 +2273,13 @@
         <v>1949286</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2347,13 @@
         <v>27995</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -2350,13 +2362,13 @@
         <v>67930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -2365,13 +2377,13 @@
         <v>95926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2398,13 @@
         <v>1935962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
         <v>1576</v>
@@ -2401,13 +2413,13 @@
         <v>1689873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="M8" s="7">
         <v>3405</v>
@@ -2416,13 +2428,13 @@
         <v>3625834</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2502,13 @@
         <v>6208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2505,13 +2517,13 @@
         <v>15570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2520,13 +2532,13 @@
         <v>21778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2553,13 @@
         <v>474973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -2556,13 +2568,13 @@
         <v>443061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2571,13 +2583,13 @@
         <v>918034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2657,13 @@
         <v>129852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2660,13 +2672,13 @@
         <v>351006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>441</v>
@@ -2675,13 +2687,13 @@
         <v>480858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2708,13 @@
         <v>3289930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>2971</v>
@@ -2711,13 +2723,13 @@
         <v>3203224</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6055</v>
@@ -2726,13 +2738,13 @@
         <v>6493154</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA2A746-2274-4BB6-BD6A-7168CF15DBA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B760176-A636-4D57-B871-BA918DBC4333}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2943,13 @@
         <v>69931</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
@@ -2946,13 +2958,13 @@
         <v>211081</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>257</v>
@@ -2961,13 +2973,13 @@
         <v>281012</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2994,13 @@
         <v>684416</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>711</v>
@@ -2997,13 +3009,13 @@
         <v>783579</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3012,13 +3024,13 @@
         <v>1467995</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3098,13 @@
         <v>38616</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3101,13 +3113,13 @@
         <v>117735</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -3116,13 +3128,13 @@
         <v>156351</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,10 +3149,10 @@
         <v>2037769</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>185</v>
@@ -3241,13 +3253,13 @@
         <v>10937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3256,13 +3268,13 @@
         <v>17344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3271,13 +3283,13 @@
         <v>28281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3304,13 @@
         <v>535949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3307,13 +3319,13 @@
         <v>531796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1003</v>
@@ -3322,13 +3334,13 @@
         <v>1067745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3408,13 @@
         <v>119484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3411,13 +3423,13 @@
         <v>346161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -3426,13 +3438,13 @@
         <v>465645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3459,13 @@
         <v>3258134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
         <v>3024</v>
@@ -3462,13 +3474,13 @@
         <v>3185939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
         <v>6118</v>
@@ -3477,13 +3489,13 @@
         <v>6444073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCD2BE6-087E-4D1A-822B-9B1B48CDF538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E7B68-4F6F-4427-A2C7-8F8A2BC25B02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3694,13 @@
         <v>121348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>569</v>
@@ -3697,13 +3709,13 @@
         <v>319041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>748</v>
@@ -3712,13 +3724,13 @@
         <v>440389</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3745,13 @@
         <v>420286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>858</v>
@@ -3748,13 +3760,13 @@
         <v>516912</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1370</v>
@@ -3763,13 +3775,13 @@
         <v>937197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3849,13 @@
         <v>143693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
         <v>395</v>
@@ -3852,13 +3864,13 @@
         <v>350755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -3867,13 +3879,13 @@
         <v>494448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3900,13 @@
         <v>2018329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>2526</v>
@@ -3903,13 +3915,13 @@
         <v>1898766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>4344</v>
@@ -3998,7 +4010,7 @@
         <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>73</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4007,13 +4019,13 @@
         <v>60378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -4022,13 +4034,13 @@
         <v>88446</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +4055,13 @@
         <v>644970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>83</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4058,13 +4070,13 @@
         <v>653508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -4073,13 +4085,13 @@
         <v>1298480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4159,13 @@
         <v>293110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4162,13 +4174,13 @@
         <v>730173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>1452</v>
@@ -4177,13 +4189,13 @@
         <v>1023283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,10 +4213,10 @@
         <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
         <v>4290</v>
@@ -4213,13 +4225,13 @@
         <v>3069187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>7264</v>
@@ -4228,13 +4240,13 @@
         <v>6152771</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9E45510-5F13-4C09-B166-D765D9A8A45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA4D0BA-9EDC-4703-A62C-FE6D04ABF3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{02DACB2E-7C7A-4DE7-BD86-1396502EE05C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B73F385F-8164-45AF-BBA6-A429D84B19CD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>13,13%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,78%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>86,87%</t>
   </si>
   <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>89,47%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,127 +140,130 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,02%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>3,78%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>96,22%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>98,88%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>6,7%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>5,08%</t>
@@ -269,28 +272,31 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>5,65%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>92,37%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>94,35%</t>
   </si>
   <si>
     <t>95,44%</t>
@@ -305,103 +311,109 @@
     <t>9,81%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>90,19%</t>
   </si>
   <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
   </si>
   <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>4,9%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>95,1%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>1,29%</t>
@@ -410,301 +422,301 @@
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,29%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>1,92%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
   </si>
   <si>
     <t>96,24%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
   </si>
   <si>
     <t>92,62%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>93,9%</t>
   </si>
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -713,199 +725,205 @@
     <t>22,4%</t>
   </si>
   <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>31,97%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
   </si>
   <si>
     <t>77,6%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>68,03%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>5,6%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>92,24%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F53DED81-83D3-4A7F-964D-27260661B51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3357E486-04D2-4527-A09A-5A688FA4FC5D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1644,7 +1662,7 @@
         <v>1624</v>
       </c>
       <c r="D8" s="7">
-        <v>1667861</v>
+        <v>1667860</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1695,7 +1713,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1942,10 @@
         <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>334</v>
@@ -1936,13 +1954,13 @@
         <v>338386</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,16 +1972,16 @@
         <v>3098</v>
       </c>
       <c r="D14" s="7">
-        <v>3164705</v>
+        <v>3164706</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3079</v>
@@ -1972,28 +1990,28 @@
         <v>3152649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6177</v>
       </c>
       <c r="N14" s="7">
-        <v>6317355</v>
+        <v>6317354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,7 +2023,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2035,7 +2053,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2049,7 +2067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082D3677-B4DE-43F9-BD94-142EFE50889F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7307FDC-C8ED-4AA2-BE59-5DCAD84CCA59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2210,13 @@
         <v>95648</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>250</v>
@@ -2207,13 +2225,13 @@
         <v>267506</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>337</v>
@@ -2222,13 +2240,13 @@
         <v>363154</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2261,13 @@
         <v>878995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>997</v>
@@ -2258,13 +2276,13 @@
         <v>1070290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1818</v>
@@ -2273,13 +2291,13 @@
         <v>1949286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2365,13 @@
         <v>27995</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -2362,13 +2380,13 @@
         <v>67930</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>86</v>
@@ -2377,13 +2395,13 @@
         <v>95926</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2416,13 @@
         <v>1935962</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1576</v>
@@ -2413,13 +2431,13 @@
         <v>1689873</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3405</v>
@@ -2428,13 +2446,13 @@
         <v>3625834</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2520,13 @@
         <v>6208</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -2517,13 +2535,13 @@
         <v>15570</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -2532,13 +2550,13 @@
         <v>21778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2571,13 @@
         <v>474973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>398</v>
@@ -2568,13 +2586,13 @@
         <v>443061</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>832</v>
@@ -2583,13 +2601,13 @@
         <v>918034</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2675,13 @@
         <v>129852</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>323</v>
@@ -2672,13 +2690,13 @@
         <v>351006</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>441</v>
@@ -2687,13 +2705,13 @@
         <v>480858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2726,13 @@
         <v>3289930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>2971</v>
@@ -2723,13 +2741,13 @@
         <v>3203224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>6055</v>
@@ -2738,13 +2756,13 @@
         <v>6493154</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2800,7 +2818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B760176-A636-4D57-B871-BA918DBC4333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3EB5A30-2F0C-4912-8D07-1007DBE6D18B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2836,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2943,13 +2961,13 @@
         <v>69931</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>181</v>
@@ -2958,13 +2976,13 @@
         <v>211081</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>257</v>
@@ -2973,13 +2991,13 @@
         <v>281012</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,13 +3012,13 @@
         <v>684416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>711</v>
@@ -3009,13 +3027,13 @@
         <v>783579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1397</v>
@@ -3024,13 +3042,13 @@
         <v>1467995</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,13 +3116,13 @@
         <v>38616</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>106</v>
@@ -3113,13 +3131,13 @@
         <v>117735</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>142</v>
@@ -3128,13 +3146,13 @@
         <v>156351</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3167,13 @@
         <v>2037769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1802</v>
@@ -3164,13 +3182,13 @@
         <v>1870565</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3718</v>
@@ -3179,13 +3197,13 @@
         <v>3908334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3253,13 +3271,13 @@
         <v>10937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -3268,13 +3286,13 @@
         <v>17344</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -3283,13 +3301,13 @@
         <v>28281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3322,13 @@
         <v>535949</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3319,13 +3337,13 @@
         <v>531796</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>1003</v>
@@ -3334,13 +3352,13 @@
         <v>1067745</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3426,13 @@
         <v>119484</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3423,13 +3441,13 @@
         <v>346161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>423</v>
@@ -3438,13 +3456,13 @@
         <v>465645</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3477,13 @@
         <v>3258134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>3024</v>
@@ -3474,13 +3492,13 @@
         <v>3185939</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>6118</v>
@@ -3489,13 +3507,13 @@
         <v>6444073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,7 +3569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336E7B68-4F6F-4427-A2C7-8F8A2BC25B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9880D9-442C-402C-B1CB-A8B55690FF40}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3712,13 @@
         <v>121348</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>569</v>
@@ -3709,13 +3727,13 @@
         <v>319041</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M4" s="7">
         <v>748</v>
@@ -3724,13 +3742,13 @@
         <v>440389</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3763,13 @@
         <v>420286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>858</v>
@@ -3760,13 +3778,13 @@
         <v>516912</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1370</v>
@@ -3775,13 +3793,13 @@
         <v>937197</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,28 +3867,28 @@
         <v>143693</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>395</v>
       </c>
       <c r="I7" s="7">
-        <v>350755</v>
+        <v>350754</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>569</v>
@@ -3879,13 +3897,13 @@
         <v>494448</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3918,13 @@
         <v>2018329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>2526</v>
@@ -3915,13 +3933,13 @@
         <v>1898766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>4344</v>
@@ -3930,13 +3948,13 @@
         <v>3917095</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,7 +3981,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +4022,13 @@
         <v>28069</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4019,13 +4037,13 @@
         <v>60378</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -4034,13 +4052,13 @@
         <v>88446</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4073,13 @@
         <v>644970</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4070,13 +4088,13 @@
         <v>653508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>1550</v>
@@ -4085,13 +4103,13 @@
         <v>1298480</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4177,13 @@
         <v>293110</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>1062</v>
@@ -4174,13 +4192,13 @@
         <v>730173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>1452</v>
@@ -4189,13 +4207,13 @@
         <v>1023283</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,16 +4225,16 @@
         <v>2974</v>
       </c>
       <c r="D14" s="7">
-        <v>3083584</v>
+        <v>3083585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>4290</v>
@@ -4225,28 +4243,28 @@
         <v>3069187</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>7264</v>
       </c>
       <c r="N14" s="7">
-        <v>6152771</v>
+        <v>6152772</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4276,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4306,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4302,7 +4320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
